--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgra\OneDrive - The University of Liverpool\My files\Condatis4Naturerecovery\Rproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://theuniversityofliverpool-my.sharepoint.com/personal/jhodgson_liverpool_ac_uk/Documents/Condatis4Naturerecovery/Rproj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="8_{7C8988A7-61BB-42DE-9533-DB0EA98DB87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2A6ED115-FD63-48FE-B97F-5726528E8E66}"/>
+  <xr:revisionPtr revIDLastSave="630" documentId="8_{7C8988A7-61BB-42DE-9533-DB0EA98DB87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2684526-7485-4DF2-9CF6-7D037D574C13}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="6000" xr2:uid="{B5DF8883-B601-485C-A863-A11AB33F307F}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{B5DF8883-B601-485C-A863-A11AB33F307F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="maxdisp" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
   <si>
     <t>Grassland</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Problematic</t>
   </si>
   <si>
-    <t>Not run yet</t>
-  </si>
-  <si>
     <t>flow</t>
   </si>
   <si>
@@ -84,7 +82,19 @@
     <t>bottlenecks</t>
   </si>
   <si>
-    <t>Correct</t>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Surrey- Heathland</t>
+  </si>
+  <si>
+    <t>SussexKent- Grassland</t>
+  </si>
+  <si>
+    <t>LostWetlands- Wetland</t>
+  </si>
+  <si>
+    <t>exactly singular</t>
   </si>
 </sst>
 </file>
@@ -104,14 +114,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,11 +137,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
@@ -140,8 +146,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -296,62 +308,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,90 +470,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -791,839 +926,1954 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C907E0-A23D-44A6-8621-C057AE6D28A5}">
-  <dimension ref="A1:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8155A842-0E35-4A8C-A07D-FC17977B2122}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="35" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="52"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="49">
+        <v>3.4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3.8022800000000001E-19</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1.3265599999999999E-8</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.44329E-15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.99999999999997002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="18">
+        <v>7.4523599999999997E-20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.4386900000000002E-4</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1.9362300000000001E-12</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="18">
+        <v>8.5912900000000004E-20</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.25367E-5</v>
+      </c>
+      <c r="O6" s="17">
+        <v>3.7379499999999998E-12</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="49"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5.6555000000000005E-19</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5.8018400000000003E-6</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2.2204499999999999E-16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2730</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.1463100000000001E-19</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5.0857699999999999E-3</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.11022E-16</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.99999988079071001</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1.4324700000000001E-19</v>
+      </c>
+      <c r="N7" s="17">
+        <v>5.4772699999999998E-5</v>
+      </c>
+      <c r="O7" s="17">
+        <v>-8.5310699999999999E-8</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="49"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17">
+        <v>-8.5708399999999999E-16</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.36947E-8</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3.8857800000000001E-16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.9332099999999999E-19</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.1800100000000001E-2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2.96758E-11</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1.76745E-19</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1.7040100000000001E-4</v>
+      </c>
+      <c r="O8" s="17">
+        <v>-3.33067E-16</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="49"/>
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17">
+        <v>-1.9071700000000001E-14</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.3265599999999999E-8</v>
+      </c>
+      <c r="E9" s="17">
+        <v>-8.8817800000000003E-16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="17">
+        <v>-4.0855900000000002E-15</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.4077599999999997E-4</v>
+      </c>
+      <c r="J9" s="17">
+        <v>-7.7715600000000002E-16</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M9" s="17">
+        <v>-9.0136700000000004E-16</v>
+      </c>
+      <c r="N9" s="17">
+        <v>2.0112999999999999E-5</v>
+      </c>
+      <c r="O9" s="17">
+        <v>-5.55112E-16</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="51">
+        <v>1</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-4.7014060811538001E-16</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5.0376424042041999E-5</v>
+      </c>
+      <c r="E10" s="21">
+        <v>-1.3667310625314E+29</v>
+      </c>
+      <c r="F10" s="2">
+        <v>74505650176</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="28">
+        <v>-2.2882800000000002E-15</v>
+      </c>
+      <c r="I10" s="28">
+        <v>4.6280900000000003E-7</v>
+      </c>
+      <c r="J10" s="18">
+        <v>-1.7196846008301001</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1615500000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="60"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17">
+        <v>-1.7188281615678E-15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4382431232</v>
+      </c>
+      <c r="E11" s="20">
+        <v>-6.0747106901557E+16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="17">
+        <v>-5.7026802340921999E-15</v>
+      </c>
+      <c r="I11" s="19">
+        <v>9.4001330808168997E-7</v>
+      </c>
+      <c r="J11" s="17">
+        <v>-3.3306690738755002E-16</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="60"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17">
+        <v>-8.7299695223918997E-6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.34732708334923001</v>
+      </c>
+      <c r="E12" s="20">
+        <v>-3604140000000000</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7.9214000000000002E+32</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="17">
+        <v>-1.8323499999999999E-15</v>
+      </c>
+      <c r="I12" s="17">
+        <v>9.5949719252529998E-5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-1.8572900000000001</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1392610000</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="17">
+        <v>-6.8553641438483998E-2</v>
+      </c>
+      <c r="N12" s="17">
+        <v>47.50602722168</v>
+      </c>
+      <c r="O12" s="17">
+        <v>-1.4202569377061999E+20</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="52"/>
+      <c r="B13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="24">
+        <v>-3.80757E-8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.1644199999999997E-4</v>
+      </c>
+      <c r="E13" s="39">
+        <v>-3.0702999999999999E+29</v>
+      </c>
+      <c r="F13" s="24">
+        <v>144216000000</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="24">
+        <v>-6.7516199999999998E-15</v>
+      </c>
+      <c r="I13" s="24">
+        <v>6.0422200000000005E-7</v>
+      </c>
+      <c r="J13" s="24">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="K13" s="24">
+        <v>9209190000</v>
+      </c>
+      <c r="L13" s="41">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C17" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="66"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="52"/>
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="51">
+        <v>3.4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2.833696999005E-5</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.15267241001129001</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9.9915765225886896E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.99806696176528997</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1.9094047602266E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.68423300981521995</v>
+      </c>
+      <c r="J21" s="18">
+        <v>7.7180653810501001E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.82876300811768</v>
+      </c>
+      <c r="L21" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M21" s="18">
+        <v>3.8069571019149998E-5</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1.0891002602875E-2</v>
+      </c>
+      <c r="O21" s="17">
+        <v>5.8835238451137998E-4</v>
+      </c>
+      <c r="P21" s="22">
+        <v>0.99795746803284002</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="60"/>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2.3040499999999998E-2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>4.6226399999999998E-6</v>
+      </c>
+      <c r="E22" s="17">
+        <v>3.9727068506180997E-3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.99803322553634999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1.4964726287872E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.63701128959655995</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0.20286230742931</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.78939282894134999</v>
+      </c>
+      <c r="L22" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="17">
+        <v>4.0092407289193997E-5</v>
+      </c>
+      <c r="N22" s="17">
+        <v>2.9089614748954998E-2</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1.6941700130700999E-2</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0.99123519659042003</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="60"/>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17">
+        <v>9.1241263362463005E-6</v>
+      </c>
+      <c r="D23" s="17">
+        <v>6.0608673840760997E-2</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.72577965259552002</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.99688357114792003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1.3680935371666999E-3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.44968983530998002</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0.12491562962532</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.88249832391739003</v>
+      </c>
+      <c r="L23" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M23" s="17">
+        <v>4.0925020584837002E-5</v>
+      </c>
+      <c r="N23" s="17">
+        <v>8.8440161198378008E-3</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1.3601777143776E-2</v>
+      </c>
+      <c r="P23" s="22">
+        <v>0.99774265289306996</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="52"/>
+      <c r="B24" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17">
+        <v>3.3785854611778998E-5</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.17485442757607</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1.0922588407992999E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.99487882852553999</v>
+      </c>
+      <c r="G24" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H24" s="17">
+        <v>5.3712801309302005E-4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.85734409093857</v>
+      </c>
+      <c r="J24" s="24">
+        <v>0.27487081289290999</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.69798773527144997</v>
+      </c>
+      <c r="L24" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M24" s="17">
+        <v>2.1385667423601001E-5</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1.0181123390794E-2</v>
+      </c>
+      <c r="O24" s="17">
+        <v>5.8642216026782998E-3</v>
+      </c>
+      <c r="P24" s="22">
+        <v>0.99086260795592995</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="51">
+        <v>1</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2.6100328495704E-11</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2.4074935354291998E-3</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5.1542306318878997E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="28">
+        <v>8.1432866863906004E-5</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0.29787236452103</v>
+      </c>
+      <c r="J25" s="18">
+        <v>4.8055170918815001E-4</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.95712947845458995</v>
+      </c>
+      <c r="L25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1.0797893246206E-8</v>
+      </c>
+      <c r="N25" s="18">
+        <v>7.4101692007389001E-5</v>
+      </c>
+      <c r="O25" s="18">
+        <v>7.0706363430871998E-7</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.99990534782410001</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="60"/>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1.2719519448118E-12</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1.0727626431616999E-6</v>
+      </c>
+      <c r="E26" s="20">
+        <v>6.3785621229328998E-9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1.3755967665929E-4</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0.36864513158798001</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2.9454803094268001E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.95459342002868997</v>
+      </c>
+      <c r="L26" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M26" s="4">
+        <v>6.7414487325834001E-9</v>
+      </c>
+      <c r="N26" s="4">
+        <v>7.3139281084876998E-6</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1.4299100439529999E-4</v>
+      </c>
+      <c r="P26" s="22">
+        <v>0.99999642372131003</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="60"/>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="17">
+        <v>6.0831673032169003E-11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.7343308718408999E-4</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.95174163579940996</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.99999988079071001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2.1438766270876001E-4</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0.19208127260207999</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1.0951733216643E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.99405014514922996</v>
+      </c>
+      <c r="L27" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="17">
+        <v>8.4991231830144997E-9</v>
+      </c>
+      <c r="N27" s="17">
+        <v>8.3093473222106898E-5</v>
+      </c>
+      <c r="O27" s="17">
+        <v>3.9604565245099003E-4</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.99991482496261996</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="52"/>
+      <c r="B28" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="24">
+        <v>4.0456693550793997E-11</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.5510708801447998E-3</v>
+      </c>
+      <c r="E28" s="39">
+        <v>1.4818787349212999E-5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.99999988079071001</v>
+      </c>
+      <c r="G28" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2.0419900465639999E-5</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0.42649725079535999</v>
+      </c>
+      <c r="J28" s="24">
+        <v>5.5114668793976003E-3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.88350343704223999</v>
+      </c>
+      <c r="L28" s="41">
+        <v>10000</v>
+      </c>
+      <c r="M28" s="24">
+        <v>1.6819855230832001E-10</v>
+      </c>
+      <c r="N28" s="24">
+        <v>4.5605993364006003E-5</v>
+      </c>
+      <c r="O28" s="39">
+        <v>2.3165118818723999E-6</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.99999725818634</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C21:Q28 C6:Q11 C12:L13 N12:Q13">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 I3 N3 D18 I18 N18 I21:I28 D21:D28 I6:I16 D6:D16 N21:N28 N6:N16">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3 K3 P3 F18 K18 P18 K6:K16 P6:P16 F21:F28 P21:P28 K21:K28 F6:F16">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C907E0-A23D-44A6-8621-C057AE6D28A5}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.765625" customWidth="1"/>
+    <col min="9" max="10" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.765625" customWidth="1"/>
+    <col min="14" max="14" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+    </row>
+    <row r="3" spans="1:18" ht="24.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="32" t="s">
+      <c r="D3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="32" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="36" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="36" t="s">
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="36" t="s">
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="K5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="15" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="P5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="39"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="R5" s="52"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="49">
         <v>3.4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D6" s="18">
         <v>3.8022800000000001E-19</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="18">
         <v>1.3265599999999999E-8</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F6" s="18">
         <v>1.44329E-15</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="25">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="18">
         <v>7.4523599999999997E-20</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J6" s="2">
         <v>8.4386900000000002E-4</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K6" s="18">
         <v>1.9362300000000001E-12</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
         <v>10000</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N6" s="18">
         <v>8.5912900000000004E-20</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O6" s="17">
         <v>1.25367E-5</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P6" s="17">
         <v>3.7379499999999998E-12</v>
       </c>
-      <c r="Q5" s="52">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
         <v>6959</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="49"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D7" s="17">
         <v>5.6555000000000005E-19</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E7" s="17">
         <v>5.8018400000000003E-6</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F7" s="17">
         <v>2.2204499999999999E-16</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>2730</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I7" s="17">
         <v>1.1463100000000001E-19</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="4">
         <v>5.0857699999999999E-3</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K7" s="17">
         <v>1.11022E-16</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>10000</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N7" s="17">
         <v>1.4324700000000001E-19</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O7" s="17">
         <v>5.4772699999999998E-5</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P7" s="17">
         <v>-8.5310699999999999E-8</v>
       </c>
-      <c r="Q6" s="52">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="49"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D8" s="17">
         <v>-8.5708399999999999E-16</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E8" s="17">
         <v>1.36947E-8</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F8" s="17">
         <v>3.8857800000000001E-16</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="17">
         <v>1.9332099999999999E-19</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="4">
         <v>1.1800100000000001E-2</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K8" s="17">
         <v>2.96758E-11</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
         <v>10000</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N8" s="17">
         <v>1.76745E-19</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O8" s="17">
         <v>1.7040100000000001E-4</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P8" s="17">
         <v>-3.33067E-16</v>
       </c>
-      <c r="Q7" s="52">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="Q8" s="22">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="48" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="49"/>
+      <c r="B9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D9" s="17">
         <v>-1.9071700000000001E-14</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E9" s="17">
         <v>1.3265599999999999E-8</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F9" s="17">
         <v>-8.8817800000000003E-16</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="24">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="17">
         <v>-4.0855900000000002E-15</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="4">
         <v>5.4077599999999997E-4</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K9" s="17">
         <v>-7.7715600000000002E-16</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>10000</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N9" s="17">
         <v>-9.0136700000000004E-16</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O9" s="17">
         <v>2.0112999999999999E-5</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P9" s="17">
         <v>-5.55112E-16</v>
       </c>
-      <c r="Q8" s="52">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="Q9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
         <v>9024</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="49"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="13">
         <v>170</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D10" s="67">
         <v>-1.9071700000000001E-14</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E10" s="67">
         <v>1.3265599999999999E-8</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F10" s="67">
         <v>-8.8817800000000003E-16</v>
       </c>
-      <c r="G9" s="42">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="G10" s="73">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="17">
         <v>-4.0855900000000002E-15</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="4">
         <v>5.4077599999999997E-4</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K10" s="17">
         <v>-7.7715600000000002E-16</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>10000</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="18">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="49"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="13">
         <v>300</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="19">
+      <c r="D11" s="67"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="49"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="14">
         <v>500</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="11">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="24">
+      <c r="D12" s="68"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="17">
         <v>-4.0855900000000002E-15</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="4">
         <v>5.4077599999999997E-4</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K12" s="17">
         <v>-7.7715600000000002E-16</v>
       </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
         <v>10000</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N12" s="24">
         <v>-9.0136700000000004E-16</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O12" s="24">
         <v>2.0112999999999999E-5</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P12" s="24">
         <v>-5.55112E-16</v>
       </c>
-      <c r="Q11" s="52">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
-        <v>1</v>
-      </c>
-      <c r="B12" s="56" t="s">
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="51">
+        <v>1</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D13" s="18">
         <v>-4.7014060811538001E-16</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E13" s="18">
         <v>5.0376424042041999E-5</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F13" s="21">
         <v>-1.3667310625314E+29</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G13" s="2">
         <v>74505650176</v>
       </c>
-      <c r="H12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="28">
         <v>-2.2882800000000002E-15</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J13" s="28">
         <v>4.6280900000000003E-7</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K13" s="30">
         <v>-1.7196846008301001</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L13" s="29">
         <v>1615500000</v>
       </c>
-      <c r="M12" s="22">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="18">
+      <c r="M13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="60"/>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17">
+        <v>-1.7188281615678E-15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4382431232</v>
+      </c>
+      <c r="F14" s="20">
+        <v>-6.0747106901557E+16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="17">
+        <v>-5.7026802340921999E-15</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9.4001330808168997E-7</v>
+      </c>
+      <c r="K14" s="17">
+        <v>-3.3306690738755002E-16</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="60"/>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="17">
+        <v>-8.7299695223918997E-6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.34732708334923001</v>
+      </c>
+      <c r="F15" s="20">
+        <v>-3604140000000000</v>
+      </c>
+      <c r="G15" s="17">
+        <v>7.9214000000000002E+32</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="17">
+        <v>-1.8323499999999999E-15</v>
+      </c>
+      <c r="J15" s="17">
+        <v>9.5949719252529998E-5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-1.8572900000000001</v>
+      </c>
+      <c r="L15" s="17">
+        <v>1392610000</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="60"/>
+      <c r="B16" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="35">
+        <v>-3.80757E-8</v>
+      </c>
+      <c r="E16" s="34">
+        <v>7.1644199999999997E-4</v>
+      </c>
+      <c r="F16" s="36">
+        <v>-3.0702999999999999E+29</v>
+      </c>
+      <c r="G16" s="35">
+        <v>144216000000</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="35">
+        <v>-6.7516199999999998E-15</v>
+      </c>
+      <c r="J16" s="35">
+        <v>6.0422200000000005E-7</v>
+      </c>
+      <c r="K16" s="35">
+        <v>-1.7763599999999999E-15</v>
+      </c>
+      <c r="L16" s="35">
+        <v>9209190000</v>
+      </c>
+      <c r="M16" s="38">
+        <v>1000</v>
+      </c>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="60"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="25">
+        <v>170</v>
+      </c>
+      <c r="D17" s="67">
+        <v>-3.80757E-8</v>
+      </c>
+      <c r="E17" s="67">
+        <v>7.1644199999999997E-4</v>
+      </c>
+      <c r="F17" s="67">
+        <v>-3.0702999999999999E+29</v>
+      </c>
+      <c r="G17" s="67">
+        <v>144216000000</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="60"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="26">
+        <v>300</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="52"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="27">
         <v>500</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="17">
-        <v>1000</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="24">
-        <v>-1.7188281615678E-15</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4382431232</v>
-      </c>
-      <c r="F14" s="50">
-        <v>-6.0747106901557E+16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="24">
-        <v>-5.7026802340921999E-15</v>
-      </c>
-      <c r="J14" s="26">
-        <v>9.4001330808168997E-7</v>
-      </c>
-      <c r="K14" s="24">
-        <v>-3.3306690738755002E-16</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1000</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="24">
-        <v>-8.7299695223918997E-6</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.34732708334923001</v>
-      </c>
-      <c r="F15" s="50">
-        <v>-3604140000000000</v>
-      </c>
-      <c r="G15" s="24">
-        <v>7.9214000000000002E+32</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="24">
-        <v>-1.8323499999999999E-15</v>
-      </c>
-      <c r="J15" s="24">
-        <v>9.5949719252529998E-5</v>
-      </c>
-      <c r="K15" s="7">
-        <v>-1.8572900000000001</v>
-      </c>
-      <c r="L15" s="27">
-        <v>1392610000</v>
-      </c>
-      <c r="M15" s="17">
-        <v>1000</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="24">
-        <v>-3.80757E-8</v>
-      </c>
-      <c r="E16" s="7">
-        <v>7.1644199999999997E-4</v>
-      </c>
-      <c r="F16" s="50">
-        <v>-3.0702999999999999E+29</v>
-      </c>
-      <c r="G16" s="24">
-        <v>144216000000</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="24">
-        <v>-6.7516199999999998E-15</v>
-      </c>
-      <c r="J16" s="24">
-        <v>6.0422200000000005E-7</v>
-      </c>
-      <c r="K16" s="24">
-        <v>-1.7763599999999999E-15</v>
-      </c>
-      <c r="L16" s="27">
-        <v>9209190000</v>
-      </c>
-      <c r="M16" s="17">
-        <v>1000</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="62">
-        <v>170</v>
-      </c>
-      <c r="D17" s="30">
-        <v>-3.80757E-8</v>
-      </c>
-      <c r="E17" s="30">
-        <v>7.1644199999999997E-4</v>
-      </c>
-      <c r="F17" s="30">
-        <v>-3.0702999999999999E+29</v>
-      </c>
-      <c r="G17" s="30">
-        <v>144216000000</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="63">
-        <v>300</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="64">
-        <v>500</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:M4"/>
+  <mergeCells count="28">
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="F17:F19"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:R12 D14:R19 D13:H13 M13:R13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="D6:R19">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 J2 O2 O5:O1048576 E5:E1048576 J5:J12 J14:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="E3 J3 O3 J6:J22 O6:O22 E6:E22 J41:J1048576 O41:O1048576 E41:E1048576">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2 L2 Q2 Q5:Q1048576 G5:G1048576 L5:L12 L14:L1048576">
+  <conditionalFormatting sqref="G3 L3 Q3 L6:L22 Q6:Q22 G6:G22 L41:L1048576 Q41:Q1048576 G41:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B42">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -1909,16 +3159,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4067BF00-918D-42CC-8552-DD963EBEA7A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2c0728d4-b628-46ac-beb8-1847ad0e6c02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c0728d4-b628-46ac-beb8-1847ad0e6c02"/>
     <ds:schemaRef ds:uri="2c43926a-b248-4fb5-8692-7f03bd5c687b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>